--- a/biology/Zoologie/Eukoenenia_spelaea/Eukoenenia_spelaea.xlsx
+++ b/biology/Zoologie/Eukoenenia_spelaea/Eukoenenia_spelaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eukoenenia spelaea est une espèce de palpigrades de la famille des Eukoeneniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans des grottes en France, en Italie, en Autriche, en Slovaquie, en Hongrie, en Slovénie et en Croatie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans des grottes en France, en Italie, en Autriche, en Slovaquie, en Hongrie, en Slovénie et en Croatie,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 2,2 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 2,2 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Palpigrades of the World (version 1.0)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Palpigrades of the World (version 1.0) :
 Eukoenenia spelaea hauseri Condé, 1974 d'Italie, de Slovénie et de Croatie
 Eukoenenia spelaea spelaea (Peyerimhoff, 1902) de France et d'Autriche
 Eukoenenia spelaea strouhali Condé, 1972 d'Autriche
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peyerimhoff, 1902 : Découverte en France du genre Koenenia (Arachn. Palpigradi). Bulletin de la Société entomologique de France, vol. 1902, p. 280-283 (texte intégral).
 Szalay, 1956 : Der erste Fund von Palpigraden in Ungarn. Annales Historico-Naturales Musei Nationalis Hungarici, series nova, vol. 7, p. 439—442.
